--- a/NxyzFINAL.xlsx
+++ b/NxyzFINAL.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>X</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>EstaEnAPROX</t>
+  </si>
+  <si>
+    <t>EstaEnAPROX2</t>
   </si>
   <si>
     <t>EstaEnDESPEGUE</t>
@@ -91,7 +94,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="true"/>
@@ -102,9 +105,10 @@
     <col min="6" max="6" width="13.7109375" customWidth="true"/>
     <col min="7" max="7" width="13.7109375" customWidth="true"/>
     <col min="8" max="8" width="13" customWidth="true"/>
-    <col min="9" max="9" width="15.85546875" customWidth="true"/>
-    <col min="10" max="10" width="12.28515625" customWidth="true"/>
-    <col min="11" max="11" width="25.28515625" customWidth="true"/>
+    <col min="9" max="9" width="14" customWidth="true"/>
+    <col min="10" max="10" width="15.85546875" customWidth="true"/>
+    <col min="11" max="11" width="12.28515625" customWidth="true"/>
+    <col min="12" max="12" width="25.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -141,6 +145,9 @@
       <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
@@ -173,7 +180,10 @@
       <c r="J2" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="K2" s="0">
+      <c r="K2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="0">
         <v>0</v>
       </c>
     </row>
@@ -208,7 +218,10 @@
       <c r="J3" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="K3" s="0">
+      <c r="K3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0">
         <v>0</v>
       </c>
     </row>
@@ -243,7 +256,10 @@
       <c r="J4" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="K4" s="0">
+      <c r="K4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0">
         <v>1</v>
       </c>
     </row>
@@ -278,7 +294,10 @@
       <c r="J5" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="K5" s="0">
+      <c r="K5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0">
         <v>0</v>
       </c>
     </row>
@@ -311,9 +330,50 @@
         <v>0</v>
       </c>
       <c r="J6" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0">
+        <v>144</v>
+      </c>
+      <c r="D7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="0">
         <v>1</v>
       </c>
     </row>

--- a/NxyzFINAL.xlsx
+++ b/NxyzFINAL.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>X</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>EstaEnAPROX2</t>
+  </si>
+  <si>
+    <t>EstaEnAPROX3</t>
   </si>
   <si>
     <t>EstaEnDESPEGUE</t>
@@ -94,21 +97,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="true"/>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
     <col min="2" max="2" width="4.85546875" customWidth="true"/>
-    <col min="3" max="3" width="3.140625" customWidth="true"/>
+    <col min="3" max="3" width="4.140625" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
     <col min="5" max="5" width="13.7109375" customWidth="true"/>
     <col min="6" max="6" width="13.7109375" customWidth="true"/>
     <col min="7" max="7" width="13.7109375" customWidth="true"/>
     <col min="8" max="8" width="13" customWidth="true"/>
     <col min="9" max="9" width="14" customWidth="true"/>
-    <col min="10" max="10" width="15.85546875" customWidth="true"/>
-    <col min="11" max="11" width="12.28515625" customWidth="true"/>
-    <col min="12" max="12" width="25.28515625" customWidth="true"/>
+    <col min="10" max="10" width="14" customWidth="true"/>
+    <col min="11" max="11" width="15.85546875" customWidth="true"/>
+    <col min="12" max="12" width="12.28515625" customWidth="true"/>
+    <col min="13" max="13" width="25.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -148,6 +152,9 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
@@ -183,7 +190,10 @@
       <c r="K2" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="L2" s="0">
+      <c r="L2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="0">
         <v>0</v>
       </c>
     </row>
@@ -221,7 +231,10 @@
       <c r="K3" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="L3" s="0">
+      <c r="L3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="0">
         <v>0</v>
       </c>
     </row>
@@ -259,7 +272,10 @@
       <c r="K4" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="L4" s="0">
+      <c r="L4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="0">
         <v>1</v>
       </c>
     </row>
@@ -297,7 +313,10 @@
       <c r="K5" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="L5" s="0">
+      <c r="L5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="0">
         <v>0</v>
       </c>
     </row>
@@ -333,9 +352,12 @@
         <v>0</v>
       </c>
       <c r="K6" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="0">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="0">
         <v>1</v>
       </c>
     </row>
@@ -371,9 +393,94 @@
         <v>0</v>
       </c>
       <c r="K7" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" s="0">
+        <v>0</v>
+      </c>
+      <c r="L7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>-5000</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>-10000</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0">
+        <v>20</v>
+      </c>
+      <c r="D9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="0">
         <v>1</v>
       </c>
     </row>

--- a/NxyzFINAL.xlsx
+++ b/NxyzFINAL.xlsx
@@ -97,11 +97,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M25"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="4.85546875" customWidth="true"/>
+    <col min="1" max="1" width="6.85546875" customWidth="true"/>
+    <col min="2" max="2" width="5.85546875" customWidth="true"/>
     <col min="3" max="3" width="4.140625" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
     <col min="5" max="5" width="13.7109375" customWidth="true"/>
@@ -158,13 +158,13 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="B2" s="0">
-        <v>-170</v>
+        <v>920</v>
       </c>
       <c r="C2" s="0">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="D2" s="0" t="b">
         <v>0</v>
@@ -199,13 +199,13 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>2200</v>
+        <v>8660</v>
       </c>
       <c r="B3" s="0">
-        <v>-170</v>
+        <v>1880</v>
       </c>
       <c r="C3" s="0">
-        <v>2</v>
+        <v>635</v>
       </c>
       <c r="D3" s="0" t="b">
         <v>0</v>
@@ -240,40 +240,40 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1850</v>
+        <v>1540</v>
       </c>
       <c r="B4" s="0">
-        <v>-250</v>
+        <v>920</v>
       </c>
       <c r="C4" s="0">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D4" s="0" t="b">
         <v>0</v>
       </c>
       <c r="E4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="b">
         <v>1</v>
-      </c>
-      <c r="F4" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="0" t="b">
-        <v>0</v>
       </c>
       <c r="M4" s="0">
         <v>1</v>
@@ -281,13 +281,13 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-430</v>
+        <v>6750</v>
       </c>
       <c r="B5" s="0">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="C5" s="0">
-        <v>-2</v>
+        <v>174</v>
       </c>
       <c r="D5" s="0" t="b">
         <v>0</v>
@@ -322,13 +322,13 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0</v>
+        <v>12050</v>
       </c>
       <c r="B6" s="0">
-        <v>0</v>
+        <v>2330</v>
       </c>
       <c r="C6" s="0">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="D6" s="0" t="b">
         <v>0</v>
@@ -355,21 +355,21 @@
         <v>0</v>
       </c>
       <c r="L6" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0</v>
+        <v>10810</v>
       </c>
       <c r="B7" s="0">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="C7" s="0">
-        <v>144</v>
+        <v>890</v>
       </c>
       <c r="D7" s="0" t="b">
         <v>0</v>
@@ -396,21 +396,21 @@
         <v>0</v>
       </c>
       <c r="L7" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-5000</v>
+        <v>10900</v>
       </c>
       <c r="B8" s="0">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="C8" s="0">
-        <v>20</v>
+        <v>766</v>
       </c>
       <c r="D8" s="0" t="b">
         <v>0</v>
@@ -428,7 +428,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0" t="b">
         <v>0</v>
@@ -440,18 +440,18 @@
         <v>0</v>
       </c>
       <c r="M8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-10000</v>
+        <v>11820</v>
       </c>
       <c r="B9" s="0">
-        <v>0</v>
+        <v>2420</v>
       </c>
       <c r="C9" s="0">
-        <v>20</v>
+        <v>930</v>
       </c>
       <c r="D9" s="0" t="b">
         <v>0</v>
@@ -472,7 +472,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="0" t="b">
         <v>0</v>
@@ -481,7 +481,663 @@
         <v>0</v>
       </c>
       <c r="M9" s="0">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>10120</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1314</v>
+      </c>
+      <c r="C10" s="0">
+        <v>680</v>
+      </c>
+      <c r="D10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>11124</v>
+      </c>
+      <c r="B11" s="0">
+        <v>1450</v>
+      </c>
+      <c r="C11" s="0">
+        <v>825</v>
+      </c>
+      <c r="D11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>9750</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2330</v>
+      </c>
+      <c r="C12" s="0">
+        <v>697</v>
+      </c>
+      <c r="D12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>11930</v>
+      </c>
+      <c r="B13" s="0">
+        <v>3750</v>
+      </c>
+      <c r="C13" s="0">
+        <v>896</v>
+      </c>
+      <c r="D13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>11730</v>
+      </c>
+      <c r="B14" s="0">
+        <v>3700</v>
+      </c>
+      <c r="C14" s="0">
+        <v>720</v>
+      </c>
+      <c r="D14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>6160</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-4250</v>
+      </c>
+      <c r="C15" s="0">
+        <v>810</v>
+      </c>
+      <c r="D15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>14070</v>
+      </c>
+      <c r="B16" s="0">
+        <v>3250</v>
+      </c>
+      <c r="C16" s="0">
+        <v>581</v>
+      </c>
+      <c r="D16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>1770</v>
+      </c>
+      <c r="B17" s="0">
+        <v>1770</v>
+      </c>
+      <c r="C17" s="0">
+        <v>660</v>
+      </c>
+      <c r="D17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>-1860</v>
+      </c>
+      <c r="B18" s="0">
+        <v>-1860</v>
+      </c>
+      <c r="C18" s="0">
+        <v>408</v>
+      </c>
+      <c r="D18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>-1670</v>
+      </c>
+      <c r="B19" s="0">
+        <v>-1670</v>
+      </c>
+      <c r="C19" s="0">
+        <v>450</v>
+      </c>
+      <c r="D19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>-6990</v>
+      </c>
+      <c r="B20" s="0">
+        <v>-1270</v>
+      </c>
+      <c r="C20" s="0">
+        <v>518</v>
+      </c>
+      <c r="D20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>-9330</v>
+      </c>
+      <c r="B21" s="0">
+        <v>-870</v>
+      </c>
+      <c r="C21" s="0">
+        <v>955</v>
+      </c>
+      <c r="D21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>-8000</v>
+      </c>
+      <c r="B22" s="0">
+        <v>-1660</v>
+      </c>
+      <c r="C22" s="0">
+        <v>636</v>
+      </c>
+      <c r="D22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>-11190</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0">
+        <v>640</v>
+      </c>
+      <c r="D23" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>-15200</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0">
+        <v>306</v>
+      </c>
+      <c r="D24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>-9950</v>
+      </c>
+      <c r="B25" s="0">
+        <v>-1260</v>
+      </c>
+      <c r="C25" s="0">
+        <v>513</v>
+      </c>
+      <c r="D25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/NxyzFINAL.xlsx
+++ b/NxyzFINAL.xlsx
@@ -191,10 +191,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -252,7 +252,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -276,7 +276,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -314,10 +314,10 @@
         <v>1</v>
       </c>
       <c r="L5" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -806,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -888,10 +888,10 @@
         <v>0</v>
       </c>
       <c r="L19" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
